--- a/Excel/SCIC0003 - Inquire Customer number on bancslink.xlsx
+++ b/Excel/SCIC0003 - Inquire Customer number on bancslink.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60237C9-23B6-4126-A0B5-DD9BC75A7C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CDFA5-B11E-44FD-ADA0-56E9526494D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetname" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,12 +59,6 @@
     <t>SCREEN</t>
   </si>
   <si>
-    <t>COMMAND_RESET_TELLER</t>
-  </si>
-  <si>
-    <t>reset_teller</t>
-  </si>
-  <si>
     <t>CIF</t>
   </si>
   <si>
@@ -78,12 +76,18 @@
   <si>
     <t>Customer should be there on bancslink</t>
   </si>
+  <si>
+    <t>KODE_DETAIL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +104,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -124,16 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -147,6 +154,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,6 +177,193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>638175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66155F12-7068-4149-8507-CA93835281CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Unhide All</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>638175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2EC03C-6A45-42DA-965E-295B14C64D1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Unhide All</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sheetname"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="hidecol"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sheetname"/>
+      <sheetName val="SCIC0004 - Testing Mandatory Fi"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="hidecol"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB578C-1D4B-4E78-9D1E-24FE7C4E05FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB578C-1D4B-4E78-9D1E-24FE7C4E05FC}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,33 +689,33 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -524,32 +725,32 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4">
+        <v>67050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10000678924</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
-        <v>67050</v>
-      </c>
-      <c r="G2" s="5">
-        <v>10000678924</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -559,5 +760,57 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!hidecol">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>438150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>638175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!hidecol">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>438150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>638175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>